--- a/cases/lxpy_cases/test_data.xlsx
+++ b/cases/lxpy_cases/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myDev\pythonApiTest\cases\lxpy_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A12171-B561-4708-99C4-469132420C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085659EF-3A33-473E-A8DB-D9F79DFF5905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="184">
   <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -587,6 +587,176 @@
   </si>
   <si>
     <t>multipart/form-data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>/order/cart/deleteCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cartIds": "3731","classId":"101292","userId":"1410"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listCarts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/cart/v2/listCarts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass/listOrderClassfindPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","classAppStatus":"1","pageSize":"20", "pageNum":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/myClass/listOrderClassfindPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","classAppStatus":"3","pageSize":"20", "pageNum":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","classAppStatus":"2","pageSize":"20", "pageNum":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_未开课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_待开课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_已结课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listTimetableDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/timetable/listTimetableDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_listTimetableDate_All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/timetable/listTimetable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_llistTimetable_OneDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","date":"2020-01-29"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_转班列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"changeType":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_调课列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/classChange/listCanChangeClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"changeType":"2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_续报列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/classBase/listMySubmitClassCondtion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listMySubmitClassCondtion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","pageSize":"10", "pageNum":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/classBase/listMySubmitClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_续报列表_学科筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,12 +803,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -695,7 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -728,6 +910,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1011,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -1656,7 +1856,7 @@
         <v>138</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>36</v>
@@ -1675,10 +1875,372 @@
         <v>140</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" s="17" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="1:13" s="17" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" s="17" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" s="17" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cases/lxpy_cases/test_data.xlsx
+++ b/cases/lxpy_cases/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myDev\pythonApiTest\cases\lxpy_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085659EF-3A33-473E-A8DB-D9F79DFF5905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9584603-AF6C-4E69-A370-62BF8700143B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="300">
   <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,171 +398,824 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"gradeName": "高三", "pageSize": "10","cityId":"110100","pageNum":"1","switchOpen":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/SearchResource/v4/searchCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_searchCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gradeName": "高三","cityId":"110100","content":"英语"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/classBase/v4/getOnlineClassBaseById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnlineClass_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOnlineClassBaseById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"classId":"101292", "userId":"1410", "resubmitFlag":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaceClass_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getClassBaseById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"classId":"101294", "userId":"1410", "resubmitFlag":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/classBase/v2/getClassBaseById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/teacher/getTeacherDetailsById?teacherId=242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTeacherDetailsById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeacherDetails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"teacherId":"242"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeacherClassList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"teacherId":"242","pageSize":"10", "pageNum":"1", "isFull":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveAttention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/attention/saveAttention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/classBase/listClassBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteAttention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/attention/deleteAttention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","classId":"101292"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","pageNum":"1","pageSize":"20"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/attention/v2/listAttention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listAttention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listStudentsAndEnrollStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/listStudentsAndEnrollStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"classId":"101292"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/cart/saveCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"studentId": "1175","classId":"101292","userId":"1410"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>multipart/form-data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"gradeName": "高三", "pageSize": "10","cityId":"110100","pageNum":"1","switchOpen":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search/SearchResource/v4/searchCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>searchCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_searchCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"gradeName": "高三","cityId":"110100","content":"英语"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/base/classBase/v4/getOnlineClassBaseById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnlineClass_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOnlineClassBaseById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"classId":"101292", "userId":"1410", "resubmitFlag":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FaceClass_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getClassBaseById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"classId":"101294", "userId":"1410", "resubmitFlag":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/base/classBase/v2/getClassBaseById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/base/teacher/getTeacherDetailsById?teacherId=242</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTeacherDetailsById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TeacherDetails</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"teacherId":"242"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TeacherClassList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"teacherId":"242","pageSize":"10", "pageNum":"1", "isFull":"1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saveAttention</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/base/attention/saveAttention</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/base/classBase/listClassBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteAttention</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/base/attention/deleteAttention</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userId":"1410","classId":"101292"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"1546"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userId":"1410","pageNum":"1","pageSize":"20"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/base/attention/v2/listAttention</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listAttention</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listStudentsAndEnrollStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/user/listStudentsAndEnrollStatus</t>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>/order/cart/deleteCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cartIds": "3731","classId":"101292","userId":"1410"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listCarts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/cart/v2/listCarts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass/listOrderClassfindPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","classAppStatus":"1","pageSize":"20", "pageNum":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/myClass/listOrderClassfindPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","classAppStatus":"3","pageSize":"20", "pageNum":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","classAppStatus":"2","pageSize":"20", "pageNum":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_未开课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_待开课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_已结课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listTimetableDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/timetable/listTimetableDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_listTimetableDate_All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/timetable/listTimetable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_llistTimetable_OneDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","date":"2020-01-29"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_转班列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"changeType":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_调课列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/classChange/listCanChangeClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"changeType":"2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_续报列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/classBase/listMySubmitClassCondtion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listMySubmitClassCondtion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","pageSize":"10", "pageNum":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/classBase/listMySubmitClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myClass_续报列表_学科筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/order/v2/check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'appKey': '201820011141153', 'os': 'Android', 'version': '3.1.0', "signature": "signature_value", 'did': '869633047841059', 'cityId': 'cityId_value', 'userId': 'userId_value', 'token': 'token_value', 'Content-Type': 'application/json;charset=utf-8'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/order/v4/confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/order/v4/saveOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saveOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+	"studentId": "1175",
+	"classId": "101292",
+	"classFee": "0",
+	"courseNum": "2",
+	"schoolId": "0",
+	"activityId":"0",
+	"gradeId": "1160"
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+	"studentId": "1175",
+	"classId": "101292",
+	"classFee": "0",
+	"courseNum": "2",
+	"schoolId": "0",
+	"activityId":"0",
+	"gradeId": "1160"
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/order/cancelOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancelOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listOrders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","pageSize":"10", "pageNum":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/order/v4/listOrders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","pageSize":"10", "pageNum":"1", "orderStatus":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","pageSize":"10", "pageNum":"1", "orderStatus":"3"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","pageSize":"10", "pageNum":"1", "orderStatus":"4"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listOrders待支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listOrders已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listOrders已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"useStatus":"0","pageSize":"10", "pageNum":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/forecoupon/coupon/listCouponByUseStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listCouponByUseStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listCouponByUseStatus未使用优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listCouponByUseStatus已使用优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listCouponByUseStatus已失效优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"useStatus":"2","pageSize":"10", "pageNum":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"useStatus":"4","pageSize":"10", "pageNum":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/listUserStudents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listUserStudents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/student/v2/listGrades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生下的班级列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/student/updateSex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生更新性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"studentId": "1664","sex":"2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multipart/form-data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/student/updateSchool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生更新学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"studentId": "1664","currentSchooleId":"7","currentSchool":"丰台五一学校1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/student/updateGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生更新年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'appKey': '201820011141153', 'os': 'Android', 'version': '3.1.0', "signature": "signature_value", 'did': '869633047841059', 'cityId': 'cityId_value', 'userId': 'userId_value', 'token': 'token_value'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"studentId": "1664","grade":"31"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/existSchoolInCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验是否存在在读学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/getAreasByCityId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取在读学校所在城市列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/getschoolsByAreaId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得所在城市的校区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"areaId":"110106"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/student/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/listUserStudentSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到学生列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈_获取意见类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/feedback/listFeedbackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"feedbackResource":"2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/base/feedback/saveFeedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"content": "测试",
+	"createUser": "1410",
+	"deviceType": "V1818A",
+	"feedbackLabel": "功能异常",
+	"feedbackResource": "2",
+	"feedbackTypeId": "1",
+	"nickName": "大山的家长",
+	"userMobile": "13671388253",
+	"version": "3.1.0"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交意见反馈(不通)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/v4/getById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/updateNickName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取编辑个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑个人信息_修改昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","nickName":"大山小宇宙"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑个人信息_更新描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1410","desc":"更新的描述信息"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/updateDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/user/student/updateHeadPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"save_id"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"case_id":15,"from_arg":"$.value","to_arg":"save_id"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"studentId": "1613","classId":"101292","userId":"1410"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/order/offlinePayOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'appKey': '201820011141153', 'os': 'Android', 'version': '3.1.0', "signature": "signature_value", 'did': '869633047841059', 'cityId': 'cityId_value', 'userId': 'userId_value', 'token': 'token_value'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multipart/form-data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offlinePayOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>{"case_id":33,"from_arg":"$..orderCode","to_arg":"orderCode_id"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orderSource": "1","orderCode":"orderCode_id","cancelReason":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orderSource":"1","orderCode":"orderCode_id"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orderSource":"1","totalAmount":"0","userId":"1410","listClasses":[{"activityId":"0","classFee":"0","classId":"101292","courseNum":2,"gradeId":1160,"schoolId":"0","studentId":"studentId_id"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"case_id":52,"from_arg":"$..studentId","to_arg":"studentId_id"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -570,193 +1223,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"classId":"101292"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/order/cart/saveCart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saveCart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"studentId": "1175","classId":"101292","userId":"1410"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multipart/form-data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>/order/cart/deleteCart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteCart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"cartIds": "3731","classId":"101292","userId":"1410"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userId":"1410"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listCarts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/order/cart/v2/listCarts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myClass/listOrderClassfindPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userId":"1410","classAppStatus":"1","pageSize":"20", "pageNum":"1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/base/myClass/listOrderClassfindPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userId":"1410","classAppStatus":"3","pageSize":"20", "pageNum":"1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userId":"1410","classAppStatus":"2","pageSize":"20", "pageNum":"1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myClass_未开课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myClass_待开课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myClass_已结课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listTimetableDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/base/timetable/listTimetableDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myClass_listTimetableDate_All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/base/timetable/listTimetable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myClass_llistTimetable_OneDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userId":"1410","date":"2020-01-29"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myClass_转班列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"changeType":"1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myClass_调课列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/base/classChange/listCanChangeClass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"changeType":"2"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myClass_续报列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/base/classBase/listMySubmitClassCondtion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listMySubmitClassCondtion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userId":"1410","pageSize":"10", "pageNum":"1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/base/classBase/listMySubmitClass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myClass_续报列表_学科筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
+    <t>{"currentSchoolId":"170","cityName":"北京市", "studentName":"接口新建学生99", "sex":"1", "grade":"36", "mobile":"13671388253", "cityId":"110100", "currentSchool":"啊小学"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,13 +1279,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,16 +1379,16 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1211,26 +1678,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.4140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="19" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20.9140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="23.4140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="30.08203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="11" customWidth="1"/>
     <col min="6" max="6" width="24" style="11" customWidth="1"/>
-    <col min="7" max="7" width="14" style="11" customWidth="1"/>
-    <col min="8" max="8" width="57.5" style="11" customWidth="1"/>
-    <col min="9" max="9" width="38.75" style="11" customWidth="1"/>
+    <col min="7" max="7" width="32.08203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="50.75" style="11" customWidth="1"/>
+    <col min="9" max="9" width="43.1640625" style="11" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="27.5" style="11" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="17" customWidth="1"/>
     <col min="13" max="13" width="28.25" style="11" customWidth="1"/>
     <col min="14" max="14" width="9" style="11" customWidth="1"/>
     <col min="15" max="16384" width="9" style="11"/>
@@ -1270,7 +1737,7 @@
       <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M1" s="7" t="s">
@@ -1307,7 +1774,7 @@
         <v>42</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="16" t="s">
         <v>52</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -1342,7 +1809,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="144.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1373,7 +1840,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1404,7 +1871,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1435,7 +1902,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1466,7 +1933,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1497,7 +1964,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1528,7 +1995,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1555,69 +2022,69 @@
         <v>70</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
         <v>70</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>70</v>
@@ -1625,30 +2092,30 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>70</v>
@@ -1656,30 +2123,30 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>70</v>
@@ -1687,30 +2154,30 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>70</v>
@@ -1718,30 +2185,30 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>70</v>
@@ -1749,61 +2216,63 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>70</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L17" s="16"/>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>70</v>
@@ -1811,30 +2280,30 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>70</v>
@@ -1842,129 +2311,129 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="L19" s="16"/>
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
         <v>70</v>
       </c>
       <c r="I20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="B22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-    </row>
-    <row r="22" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="H22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>70</v>
@@ -1972,30 +2441,30 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="L23" s="16"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>70</v>
@@ -2003,30 +2472,30 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="L24" s="16"/>
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>70</v>
@@ -2034,61 +2503,61 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="L25" s="16"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="14" t="s">
+    <row r="26" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="F26" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>70</v>
@@ -2096,92 +2565,92 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="L27" s="16"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" s="17" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="16" t="s">
+    <row r="28" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="16" t="s">
+      <c r="B28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="B29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H28" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-    </row>
-    <row r="29" spans="1:13" s="17" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+      <c r="H29" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
+      <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>70</v>
@@ -2189,58 +2658,935 @@
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="12" t="s">
-        <v>135</v>
-      </c>
+      <c r="L30" s="16"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" s="17" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:13" s="15" customFormat="1" ht="133" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="231" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="D32" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="L34" s="16"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="L36" s="16"/>
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" s="13" customFormat="1" ht="114.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="M31" s="16"/>
-    </row>
-    <row r="32" spans="1:13" s="17" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
+      <c r="F37" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" s="15" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="14"/>
+    </row>
+    <row r="44" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="K46" s="12"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="K47" s="12"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="K48" s="12"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="K49" s="12"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="K52" s="12"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="1:13" s="13" customFormat="1" ht="232.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+    </row>
+    <row r="54" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" s="13" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="K56" s="12"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="12"/>
+    </row>
+    <row r="58" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="K58" s="12"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="12"/>
+    </row>
+    <row r="59" spans="1:13" s="13" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="K59" s="12"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2253,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA90ECF-F4E6-4ACD-BDC4-9CE281978057}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/cases/lxpy_cases/test_data.xlsx
+++ b/cases/lxpy_cases/test_data.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myDev\pythonApiTest\cases\lxpy_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA00B638-76A8-4AB3-AE60-CC4C10DB9465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F72D2-9A7B-4B2E-A0D9-0763726A6442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="All" sheetId="2" r:id="rId1"/>
+    <sheet name="Order" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$C$1:$M$2</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="274">
   <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1108,6 +1108,18 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.assert_status_code(200)&amp;c.assert_equal('$.code', 0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1536,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -1633,9 +1645,7 @@
       <c r="L2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -1668,7 +1678,9 @@
       <c r="L3" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="144.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -1701,7 +1713,9 @@
       <c r="L4" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
@@ -1734,7 +1748,9 @@
       <c r="L5" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
@@ -1767,7 +1783,9 @@
       <c r="L6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -1800,7 +1818,9 @@
       <c r="L7" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -1833,7 +1853,9 @@
       <c r="L8" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
@@ -1866,7 +1888,9 @@
       <c r="L9" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
@@ -1899,7 +1923,9 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
@@ -3465,13 +3491,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA90ECF-F4E6-4ACD-BDC4-9CE281978057}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="F5" sqref="A5:XFD81"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.4140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="5" customWidth="1"/>
@@ -3567,127 +3593,41 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="144.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:13" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:13" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:13" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:13" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:13" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:13" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:13" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:13" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:13" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:13" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:13" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="22.5" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="22.5" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="232.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="M3" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cases/lxpy_cases/test_data.xlsx
+++ b/cases/lxpy_cases/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myDev\pythonApiTest\cases\lxpy_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F72D2-9A7B-4B2E-A0D9-0763726A6442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125C8170-800D-4A13-848D-84CBE12D648D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="276">
   <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,14 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,18 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c.assert_status_code(0)&amp;c.assert_equal('$..code', 0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"cityId":"110100", "gradeName":"五年级"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,14 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/user/advert/getAdvert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,22 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/base/classBase/v4/getOnlineClassBaseById</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,30 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>deleteAttention</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,10 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -528,14 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>listTimetableDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,14 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>myClass_转班列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,18 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>myClass_续报列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -624,10 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/order/order/v2/check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,18 +541,6 @@
   </si>
   <si>
     <t>confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1120,6 +1000,104 @@
   </si>
   <si>
     <t>c.assert_status_code(200)&amp;c.assert_equal('$.code', 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +1136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1174,6 +1152,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,7 +1215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1264,6 +1248,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1548,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="H58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -1614,168 +1601,168 @@
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="10" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="144.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="10" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="10" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1784,1702 +1771,1802 @@
         <v>7</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="10" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="10" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="10" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M10" s="1" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>253</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="10"/>
+      <c r="L13" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="10"/>
+      <c r="L14" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="10"/>
+      <c r="L15" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="10"/>
+      <c r="L16" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="L17" s="10"/>
+        <v>204</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="10"/>
+      <c r="L18" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="10"/>
+      <c r="L20" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
-        <v>108</v>
+      <c r="A21" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
-        <v>109</v>
+      <c r="A22" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>264</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="10"/>
+      <c r="L24" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>265</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="10"/>
+      <c r="L25" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="6" t="s">
-        <v>134</v>
+      <c r="A26" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="10"/>
+      <c r="L26" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="10"/>
+      <c r="L27" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="8" t="s">
-        <v>141</v>
+      <c r="A28" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="8" t="s">
-        <v>142</v>
+      <c r="A29" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="10"/>
+      <c r="L29" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="6" t="s">
-        <v>143</v>
+      <c r="A30" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:13" s="9" customFormat="1" ht="133" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="8" t="s">
-        <v>150</v>
+      <c r="A31" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" s="7" customFormat="1" ht="231" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="6" t="s">
-        <v>157</v>
+      <c r="A32" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K32" s="6"/>
-      <c r="L32" s="10"/>
+      <c r="L32" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="6" t="s">
-        <v>158</v>
+      <c r="A33" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K33" s="6"/>
-      <c r="L33" s="10"/>
+      <c r="L33" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="8" t="s">
-        <v>159</v>
+      <c r="A34" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>160</v>
+        <v>131</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="L34" s="10"/>
+        <v>237</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="8" t="s">
-        <v>240</v>
+      <c r="A35" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>236</v>
+        <v>209</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="L35" s="10"/>
+        <v>233</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="8" t="s">
-        <v>241</v>
+      <c r="A36" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>166</v>
+        <v>136</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="L36" s="10"/>
+        <v>233</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" s="7" customFormat="1" ht="114.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="8" t="s">
-        <v>242</v>
+      <c r="A37" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="10"/>
+      <c r="L37" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="8" t="s">
-        <v>243</v>
+      <c r="A38" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="10"/>
+      <c r="L38" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="8" t="s">
-        <v>244</v>
+      <c r="A39" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="10"/>
+      <c r="L39" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="8" t="s">
-        <v>245</v>
+      <c r="A40" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="10"/>
+      <c r="L40" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="8" t="s">
-        <v>246</v>
+      <c r="A41" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="10"/>
+      <c r="L41" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="8" t="s">
-        <v>247</v>
+      <c r="A42" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="10"/>
+      <c r="L42" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="8" t="s">
-        <v>248</v>
+      <c r="A43" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
-      <c r="L43" s="10"/>
+      <c r="L43" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M43" s="8"/>
     </row>
     <row r="44" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="8" t="s">
-        <v>249</v>
+      <c r="A44" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="10"/>
+      <c r="L44" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="8" t="s">
-        <v>250</v>
+      <c r="A45" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="10"/>
+      <c r="L45" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="8" t="s">
-        <v>251</v>
+      <c r="A46" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="6"/>
-    </row>
-    <row r="47" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="E47" s="6" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="K47" s="6"/>
-      <c r="L47" s="10"/>
+      <c r="L47" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M47" s="6"/>
     </row>
     <row r="48" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="8" t="s">
-        <v>253</v>
+      <c r="A48" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="K48" s="6"/>
-      <c r="L48" s="10"/>
+      <c r="L48" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M48" s="6"/>
     </row>
     <row r="49" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="8" t="s">
-        <v>254</v>
+      <c r="A49" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="K49" s="6"/>
-      <c r="L49" s="10"/>
+      <c r="L49" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="8" t="s">
-        <v>255</v>
+      <c r="A50" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="10"/>
+      <c r="L50" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="8" t="s">
-        <v>256</v>
+      <c r="A51" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="10"/>
+      <c r="L51" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M51" s="6"/>
     </row>
     <row r="52" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="8" t="s">
-        <v>257</v>
+      <c r="A52" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="K52" s="6"/>
-      <c r="L52" s="10"/>
+      <c r="L52" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M52" s="6"/>
     </row>
     <row r="53" spans="1:13" s="7" customFormat="1" ht="232.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="6" t="s">
-        <v>258</v>
+      <c r="A53" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="L53" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M53" s="6"/>
     </row>
     <row r="54" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="8" t="s">
-        <v>259</v>
+      <c r="A54" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="10"/>
+      <c r="L54" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="8" t="s">
-        <v>260</v>
+      <c r="A55" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="10"/>
+      <c r="L55" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" s="7" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="8" t="s">
-        <v>261</v>
+      <c r="A56" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="K56" s="6"/>
-      <c r="L56" s="10"/>
+      <c r="L56" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="8" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="10"/>
+      <c r="L57" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="6" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="K58" s="6"/>
-      <c r="L58" s="10"/>
+      <c r="L58" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M58" s="6"/>
     </row>
     <row r="59" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="6" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="K59" s="6"/>
-      <c r="L59" s="10"/>
+      <c r="L59" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="M59" s="6"/>
     </row>
   </sheetData>
@@ -3493,7 +3580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA90ECF-F4E6-4ACD-BDC4-9CE281978057}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -3561,70 +3648,70 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" ht="232.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="M3" s="6"/>
     </row>

--- a/cases/lxpy_cases/test_data.xlsx
+++ b/cases/lxpy_cases/test_data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myDev\pythonApiTest\cases\lxpy_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125C8170-800D-4A13-848D-84CBE12D648D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EC1D2A-6ABB-472F-A910-9B45BAA893C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="2" r:id="rId1"/>
-    <sheet name="Order" sheetId="3" r:id="rId2"/>
+    <sheet name="CMS" sheetId="4" r:id="rId2"/>
+    <sheet name="Order" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$C$1:$M$2</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="277">
   <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1098,6 +1099,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd_login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1535,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="H58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A46" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -3577,10 +3582,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD941144-F7FF-4C41-8C13-86FFDA3C06BC}">
+  <dimension ref="A1:M59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.4140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.4140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.08203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24" style="5" customWidth="1"/>
+    <col min="7" max="7" width="32.08203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="50.75" style="5" customWidth="1"/>
+    <col min="9" max="9" width="43.1640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="27.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="28.25" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="144.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" s="9" customFormat="1" ht="133" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" s="7" customFormat="1" ht="231" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" s="7" customFormat="1" ht="114.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="1"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="1"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="1"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="1"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="1"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:13" s="9" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="1"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="1"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="1"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="1"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="1"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="1"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="1"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="1"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="1"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="1"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="1:13" s="7" customFormat="1" ht="232.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="1"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="1"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="6"/>
+    </row>
+    <row r="55" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="1"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="1:13" s="7" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="1"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="8"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="6"/>
+    </row>
+    <row r="59" spans="1:13" s="7" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA90ECF-F4E6-4ACD-BDC4-9CE281978057}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>

--- a/cases/lxpy_cases/test_data.xlsx
+++ b/cases/lxpy_cases/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myDev\pythonApiTest\cases\lxpy_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EC1D2A-6ABB-472F-A910-9B45BAA893C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41C95DB-588D-4D33-B65F-4B54193F83D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="287">
   <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1103,6 +1103,46 @@
   </si>
   <si>
     <t>cmd_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/sysUser/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loginName": "13671388253", "password": "388253"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appKey":"201820011141153","Content-Type":"application/x-www-form-urlencoded","signature": "signature_value"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/sysUser/listMenusAndFunctionsWithinPerm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appKey":"201820011141153","signature": "signature_value",'token': 'token_value', 'userId': 'userId_value'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1540,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A46" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -3585,8 +3625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD941144-F7FF-4C41-8C13-86FFDA3C06BC}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -3665,14 +3705,14 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
@@ -3684,18 +3724,34 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="144.5" customHeight="1" x14ac:dyDescent="0.45">
